--- a/WebBaiGiang_CKC/UpLoads/Files/DanhSachThi.xlsx
+++ b/WebBaiGiang_CKC/UpLoads/Files/DanhSachThi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK5\DATN\FileExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SV\Desktop\huyen\FileExcel\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -351,17 +351,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -377,10 +376,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -388,10 +387,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -399,10 +398,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -410,10 +409,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -421,10 +420,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -432,10 +431,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -443,10 +442,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -454,10 +453,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -465,10 +464,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -476,111 +475,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="b">
         <v>0</v>
       </c>
     </row>

--- a/WebBaiGiang_CKC/UpLoads/Files/DanhSachThi.xlsx
+++ b/WebBaiGiang_CKC/UpLoads/Files/DanhSachThi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SV\Desktop\huyen\FileExcel\FileExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK5\DATN\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -351,16 +351,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -376,10 +377,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -387,10 +388,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -398,10 +399,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -409,10 +410,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -420,10 +421,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -431,10 +432,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -442,10 +443,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -453,10 +454,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -464,10 +465,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -475,12 +476,111 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="b">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="b">
         <v>0</v>
       </c>
     </row>
